--- a/数据整理/stocks/A股/上证主板/603348-文灿股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603348-文灿股份.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010330</t>
+          <t>213003</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>东吴兴享成长混合A</t>
+          <t>宝盈策略增长混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>36.10</t>
+          <t>18.70</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.62</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>5</v>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9387</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>011462</t>
+          <t>213002</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>东吴兴享成长混合C</t>
+          <t>宝盈泛沿海增长混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>36.10</t>
+          <t>9.96</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.62</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>5</v>
+          <t>91.84</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6135</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>000794</t>
+          <t>010330</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>宝盈睿丰创新灵活配置混合 - A/B</t>
+          <t>东吴兴享成长混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>90.76</t>
+          <t>34.63</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>8.89</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>7</v>
+          <t>36.10</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5610</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>000796</t>
+          <t>580001</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>宝盈睿丰创新灵活配置混合 - C</t>
+          <t>东吴嘉禾优势精选混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>90.76</t>
+          <t>4.48</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>8.89</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>7</v>
+          <t>90.66</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2195</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>580001</t>
+          <t>001322</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>东吴嘉禾优势精选混合</t>
+          <t>东吴新趋势价值线灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>90.66</t>
+          <t>3.21</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.90</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>3</v>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1425</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -632,25 +692,35 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>580006</t>
+          <t>000794</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>东吴新经济混合</t>
+          <t>宝盈睿丰创新灵活配置混合 - A/B</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>85.94</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4.75</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
+          <t>90.76</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.89</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1405</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>7</v>
       </c>
     </row>
@@ -660,26 +730,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>005209</t>
+          <t>000796</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>东吴双三角股票A</t>
+          <t>宝盈睿丰创新灵活配置混合 - C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>93.05</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>4.67</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>3</v>
+          <t>90.76</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.89</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1405</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -688,26 +768,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>005210</t>
+          <t>004818</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>东吴双三角股票C</t>
+          <t>国寿安保目标策略灵活配置混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>93.05</t>
+          <t>5.73</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>4.67</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>3</v>
+          <t>36.67</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0957</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -716,26 +806,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>001322</t>
+          <t>620002</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>东吴新趋势价值线灵活配置混合</t>
+          <t>金元顺安成长动力混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>94.14</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4.44</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>4</v>
+          <t>79.63</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0513</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -744,26 +844,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>001323</t>
+          <t>009169</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>东吴移动互联灵活配置混合A</t>
+          <t>湘财长兴灵活配置混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>94.03</t>
+          <t>2.90</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>4.25</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>2</v>
+          <t>74.89</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0412</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -772,26 +882,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>213002</t>
+          <t>001323</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>宝盈泛沿海增长混合</t>
+          <t>东吴移动互联灵活配置混合A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>91.84</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>6.16</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>10</v>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0332</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -800,26 +920,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>213003</t>
+          <t>620004</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>宝盈策略增长混合</t>
+          <t>金元顺安价值增长混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>91.57</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>5.02</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>10</v>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="14">
@@ -828,26 +958,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>620004</t>
+          <t>004819</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>金元顺安价值增长混合</t>
+          <t>国寿安保目标策略灵活配置混合C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>89.63</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>5.06</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>2</v>
+          <t>36.67</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -856,26 +996,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>620002</t>
+          <t>580006</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>金元顺安成长动力混合</t>
+          <t>东吴新经济混合</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>79.63</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>5.34</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>3</v>
+          <t>85.94</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="16">
@@ -884,26 +1034,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>002170</t>
+          <t>009170</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>东吴移动互联灵活配置混合C</t>
+          <t>湘财长兴灵活配置混合C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>94.03</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>4.25</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>2</v>
+          <t>74.89</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="17">
@@ -912,26 +1072,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>004818</t>
+          <t>005209</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>国寿安保目标策略灵活配置混合A</t>
+          <t>东吴双三角股票A</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>36.67</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1.67</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>10</v>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="18">
@@ -940,26 +1110,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>004819</t>
+          <t>005210</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>国寿安保目标策略灵活配置混合C</t>
+          <t>东吴双三角股票C</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>36.67</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1.67</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>10</v>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="19">
@@ -968,26 +1148,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>009169</t>
+          <t>011462</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>湘财长兴灵活配置混合A</t>
+          <t>东吴兴享成长混合C</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>74.89</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>1.42</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>10</v>
+          <t>36.10</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="20">
@@ -996,26 +1186,34 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>009170</t>
+          <t>002170</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>湘财长兴灵活配置混合C</t>
+          <t>东吴移动互联灵活配置混合C</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>74.89</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>1.42</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>10</v>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1029,7 +1227,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1050,15 +1248,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1070,26 +1278,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009169</t>
+          <t>010330</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>湘财长兴灵活配置混合A</t>
+          <t>东吴兴享成长混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>72.38</t>
+          <t>26.11</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2.07</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>3</v>
+          <t>66.16</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9556</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -1098,26 +1316,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009170</t>
+          <t>213002</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>湘财长兴灵活配置混合C</t>
+          <t>宝盈泛沿海增长混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>72.38</t>
+          <t>7.97</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.07</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>3</v>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5834</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -1126,26 +1354,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005668</t>
+          <t>213003</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>融通新能源汽车主题精选灵活配置混合A</t>
+          <t>宝盈策略增长混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>89.53</t>
+          <t>13.82</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.51</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>6</v>
+          <t>91.63</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5694</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1154,25 +1392,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>009835</t>
+          <t>005668</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>融通新能源汽车主题精选灵活配置混合C</t>
+          <t>融通新能源汽车主题精选灵活配置混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>15.42</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>89.53</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>3.51</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5412</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1182,26 +1430,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>213002</t>
+          <t>009835</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>宝盈泛沿海增长混合</t>
+          <t>融通新能源汽车主题精选灵活配置混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>92.87</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>7.32</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>4</v>
+          <t>89.53</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0755</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -1210,26 +1468,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>213003</t>
+          <t>008128</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>宝盈策略增长混合</t>
+          <t>湘财长源股票A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>91.63</t>
+          <t>1.69</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4.12</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>9</v>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0477</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -1238,26 +1506,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>010330</t>
+          <t>009169</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>东吴兴享成长混合A</t>
+          <t>湘财长兴灵活配置混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>66.16</t>
+          <t>1.78</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3.66</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>2</v>
+          <t>72.38</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0368</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -1266,26 +1544,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>011462</t>
+          <t>008129</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>东吴兴享成长混合C</t>
+          <t>湘财长源股票C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>66.16</t>
+          <t>0.70</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>3.66</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>2</v>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -1294,25 +1582,35 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>580006</t>
+          <t>009170</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>东吴新经济混合</t>
+          <t>湘财长兴灵活配置混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>89.95</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>6.44</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
+          <t>72.38</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1322,26 +1620,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>008128</t>
+          <t>580006</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>湘财长源股票A</t>
+          <t>东吴新经济混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>94.68</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2.82</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>10</v>
+          <t>89.95</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="12">
@@ -1350,26 +1658,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>008129</t>
+          <t>011462</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>湘财长源股票C</t>
+          <t>东吴兴享成长混合C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>94.68</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2.82</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>10</v>
+          <t>66.16</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/603348-文灿股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603348-文灿股份.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1693,4 +1694,592 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010330</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东吴兴享成长混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>18.58</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>78.09</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3638</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>213003</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>宝盈策略增长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>15.21</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.52</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7499</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>213002</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>宝盈泛沿海增长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.32</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6384</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>168105</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>九泰泰富定增主题灵活配置混合型</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>70.93</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1403</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>161611</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>融通内需驱动混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1306</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004818</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国寿安保目标策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>27.94</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1225</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001672</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国寿安保智慧生活股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.84</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0944</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010403</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华商景气优选混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>85.44</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0874</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>020023</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国泰事件驱动策略混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.76</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0869</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004819</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国寿安保目标策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>27.94</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0422</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009169</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>湘财长兴灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>70.80</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0384</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011462</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>东吴兴享成长混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>78.09</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0338</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002289</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华商改革创新股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>82.30</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009170</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>湘财长兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>70.80</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603348-文灿股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603348-文灿股份.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2282,4 +2283,364 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>012541</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>金鹰产业升级混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>39.66</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>28.18</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5592</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004818</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国寿安保目标策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>25.15</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0982</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>020023</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰事件驱动策略混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.74</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0934</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010403</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华商景气优选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.49</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0422</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004819</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国寿安保目标策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>25.15</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0324</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009169</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>湘财长兴灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>65.03</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0308</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012542</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>金鹰产业升级混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>28.18</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009170</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>湘财长兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>65.03</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603348-文灿股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603348-文灿股份.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2643,4 +2644,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>14</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.57</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>11</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.87</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>19</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.06</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603348-文灿股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603348-文灿股份.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2652,7 +2653,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2663,17 +2664,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2683,14 +2704,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>8</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.89</v>
+          <t>002910</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达供给改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>38.36</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.13</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.9372</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -2699,14 +2742,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>14</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.57</v>
+          <t>005802</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富智能制造股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>31.46</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2993</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -2715,14 +2780,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>11</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.87</v>
+          <t>070021</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实主题新动力混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>24.04</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.2092</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -2731,13 +2818,493 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>000985</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实逆向策略股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>13.64</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7311</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001725</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇添富中国高端制造股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>21.15</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>82.51</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6430</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008132</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华价值驱动混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2464</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001672</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国寿安保智慧生活股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>85.77</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2114</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011160</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国质量成长6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.11</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1622</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002746</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇添富多策略定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>71.43</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1458</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004818</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国寿安保目标策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>28.73</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1052</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>501063</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇添富悦享定期开放混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>86.44</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0875</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004819</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国寿安保目标策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>28.73</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011161</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富国质量成长6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>13</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.81</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>14</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.57</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>11</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.87</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>19</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>3.06</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603348-文灿股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603348-文灿股份.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3203,7 +3204,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3214,17 +3215,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3234,14 +3255,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>13</v>
-      </c>
-      <c r="D2" t="n">
-        <v>6.81</v>
+          <t>002910</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达供给改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>49.29</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.54</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.0560</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -3250,14 +3293,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>8</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.89</v>
+          <t>070021</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实主题新动力混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>24.04</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0914</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -3266,14 +3331,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>14</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.57</v>
+          <t>000985</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实逆向策略股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>13.64</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6206</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -3282,14 +3369,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>11</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.87</v>
+          <t>206002</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华精选成长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1895</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -3298,13 +3407,319 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>008132</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华价值驱动混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.91</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1429</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004818</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国寿安保目标策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>36.45</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0893</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>014307</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实多元动力混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0842</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004819</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国寿安保目标策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>36.45</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>014308</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实多元动力混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>13</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.81</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>14</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.57</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>11</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.87</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>19</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>3.06</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603348-文灿股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603348-文灿股份.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3602,7 +3603,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3613,17 +3614,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3633,14 +3654,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>9</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5.3</v>
+          <t>002910</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达供给改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>63.77</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.2228</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -3649,14 +3692,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>13</v>
-      </c>
-      <c r="D3" t="n">
-        <v>6.81</v>
+          <t>001373</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达新丝路灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>43.42</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.17</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.5935</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -3665,14 +3730,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>8</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.89</v>
+          <t>070021</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实主题新动力混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>19.71</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5696</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -3681,14 +3768,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>14</v>
-      </c>
-      <c r="D5" t="n">
-        <v>3.57</v>
+          <t>010887</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方消费升级混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12.83</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5491</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -3697,14 +3806,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>11</v>
-      </c>
-      <c r="D6" t="n">
-        <v>2.87</v>
+          <t>000985</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实逆向策略股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.89</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3147</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -3713,13 +3844,601 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>206002</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华精选成长混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2669</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008132</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华价值驱动混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1598</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010888</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>南方消费升级混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1541</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001672</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国寿安保智慧生活股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.89</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1286</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004818</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国寿安保目标策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>44.71</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0897</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010703</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>财通智选消费股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.57</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0378</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001097</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华泰柏瑞积极优选股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.61</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0353</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010257</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>天弘多利一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>20.63</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010704</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>财通智选消费股票C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.57</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004677</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>博时战略新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.60</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004819</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国寿安保目标策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>44.71</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001447</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>天弘惠利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>21.60</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>17</v>
+      </c>
+      <c r="D2" t="n">
+        <v>9.19</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>13</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6.81</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>14</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3.57</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>11</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2.87</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>19</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>3.06</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603348-文灿股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603348-文灿股份.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>9.19</v>
+        <v>18.23</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D3" t="n">
-        <v>5.3</v>
+        <v>9.19</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D4" t="n">
-        <v>6.81</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D5" t="n">
-        <v>0.89</v>
+        <v>6.81</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D6" t="n">
-        <v>3.57</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D7" t="n">
-        <v>2.87</v>
+        <v>3.57</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>11</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2.87</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>19</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>3.06</v>
       </c>
     </row>
@@ -600,6 +617,1962 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002910</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达供给改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.41</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.55</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>8.5500</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001373</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达新丝路灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>41.27</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.67</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.6549</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010894</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华汇智优选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>58.97</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.09</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.6158</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>590002</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中邮核心成长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>37.60</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>73.26</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1430</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>270028</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发制造业精选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>38.58</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>80.44</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.1150</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>206002</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华精选成长混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12.50</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7812</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>590001</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中邮核心优选混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>12.91</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>81.83</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5706</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011184</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>东方阿尔法招阳混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.08</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.77</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5004</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>590005</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中邮核心主题混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>82.29</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2572</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006976</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏华核心优势混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.77</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2489</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010023</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发制造业精选混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>80.44</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2046</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>673050</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>西部利得新盈灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1722</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001672</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国寿安保智慧生活股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>86.24</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1717</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005967</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏华创新驱动混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8.98</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1365</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001403</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>招商国企改革主题混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>85.29</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1359</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>000030</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>长城核心优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1003</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>410001</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华富竞争力优选混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>82.97</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0885</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>004818</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>国寿安保目标策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>45.00</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0813</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010895</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>鹏华汇智优选混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>88.09</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0775</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>004986</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>鹏华策略回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>87.35</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0739</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>008084</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>海富通先进制造股票C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0703</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>008085</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>海富通先进制造股票A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0694</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>206012</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>鹏华价值精选股票</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>86.31</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0642</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>004819</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>国寿安保目标策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>45.00</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0521</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>002271</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>招商安弘灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>53.72</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0389</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001097</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华泰柏瑞积极优选股票A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>83.01</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0331</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001223</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>鹏华文化传媒娱乐股票</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>86.75</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0319</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010571</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>新沃创新领航混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>016562</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>鹏华精选成长混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>008178</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>同泰慧盈混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>015361</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>西部利得新盈灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>000757</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华富智慧城市灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>84.73</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>008541</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>西部利得新享混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>36.63</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>008179</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>同泰慧盈混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>007770</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>同泰开泰混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>85.52</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010570</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>新沃创新领航混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>012143</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>新沃内需增长混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>011185</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>东方阿尔法招阳混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>89.08</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>7.77</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>002564</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>新沃通盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>001864</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>中海魅力长三角灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>50.05</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>007771</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>同泰开泰混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>85.52</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>410009</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华富量子生命力混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>016283</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华泰柏瑞积极优选股票C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>83.01</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>013017</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>长江双盈6个月持有期债券A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>20.50</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>410006</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>华富策略精选混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>70.87</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>012144</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>新沃内需增长混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>013584</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>招商品质领航混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>71.52</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>013583</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>招商品质领航混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>71.52</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>013018</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>长江双盈6个月持有期债券C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>20.50</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>008542</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>西部利得新享混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>36.63</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1301,7 +3274,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1699,7 +3672,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2249,7 +4222,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2609,7 +4582,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3197,7 +5170,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3671,7 +5644,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/603348-文灿股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603348-文灿股份.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="D2" t="n">
-        <v>18.23</v>
+        <v>12.93</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="D3" t="n">
-        <v>9.19</v>
+        <v>18.23</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D4" t="n">
-        <v>5.3</v>
+        <v>9.19</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D5" t="n">
-        <v>6.81</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D6" t="n">
-        <v>0.89</v>
+        <v>6.81</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D7" t="n">
-        <v>3.57</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D8" t="n">
-        <v>2.87</v>
+        <v>3.57</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>11</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2.87</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>19</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>3.06</v>
       </c>
     </row>
@@ -616,7 +633,1559 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>213003</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>宝盈策略增长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>18.70</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9387</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>213002</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>宝盈泛沿海增长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.96</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.84</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6135</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010330</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东吴兴享成长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>34.63</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>36.10</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5610</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>580001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东吴嘉禾优势精选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.66</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2195</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001322</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>东吴新趋势价值线灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1425</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000794</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>宝盈睿丰创新灵活配置混合 - A/B</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.76</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.89</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1405</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000796</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>宝盈睿丰创新灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.76</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.89</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1405</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004818</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国寿安保目标策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>36.67</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0957</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>620002</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>金元顺安成长动力混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>79.63</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0513</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009169</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>湘财长兴灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>74.89</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0412</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001323</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>东吴移动互联灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0332</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>620004</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>金元顺安价值增长混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004819</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国寿安保目标策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>36.67</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>580006</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>东吴新经济混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>85.94</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009170</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>湘财长兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>74.89</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005209</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>东吴双三角股票A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005210</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>东吴双三角股票C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011462</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>东吴兴享成长混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>36.10</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002170</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>东吴移动互联灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002910</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达供给改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>79.05</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.48</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.7034</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>270028</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发制造业精选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>53.39</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.8847</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>206002</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华精选成长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>31.14</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.6940</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001373</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达新丝路灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>38.16</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.42</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.3318</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009025</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>海富通科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11.24</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3338</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010023</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发制造业精选混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.57</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3025</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>017732</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华核心优势混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.10</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2042</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009024</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>海富通科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1571</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>016562</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华精选成长混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1142</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004986</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏华策略回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>85.60</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0510</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>580006</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>东吴新经济混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.15</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0463</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>206012</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鹏华价值精选股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.28</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0445</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010571</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>新沃创新领航混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012617</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>东吴新经济混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.15</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010570</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>新沃创新领航混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>012143</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>新沃内需增长混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002564</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>新沃通盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>012144</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>新沃内需增长混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>006976</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>鹏华核心优势混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>88.10</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2572,7 +4141,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3274,7 +4843,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3672,7 +5241,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4222,7 +5791,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4582,7 +6151,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5170,7 +6739,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5642,780 +7211,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H20"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>213003</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>宝盈策略增长混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>18.70</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>91.57</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.02</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.9387</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>213002</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>宝盈泛沿海增长混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>9.96</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>91.84</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>6.16</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.6135</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>010330</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>东吴兴享成长混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>34.63</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>36.10</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.62</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.5610</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>580001</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>东吴嘉禾优势精选混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>4.48</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>90.66</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.90</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.2195</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>001322</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>东吴新趋势价值线灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>3.21</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.14</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.44</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.1425</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>000794</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>宝盈睿丰创新灵活配置混合 - A/B</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1.58</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>90.76</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>8.89</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.1405</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>000796</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>宝盈睿丰创新灵活配置混合 - C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1.58</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>90.76</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>8.89</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.1405</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>004818</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>国寿安保目标策略灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>5.73</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>36.67</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>1.67</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0957</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>620002</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>金元顺安成长动力混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.96</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>79.63</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>5.34</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0513</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>009169</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>湘财长兴灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>2.90</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>74.89</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>1.42</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0412</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>001323</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>东吴移动互联灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.78</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>94.03</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>4.25</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0332</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>620004</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>金元顺安价值增长混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.37</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>89.63</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>5.06</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0187</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>004819</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>国寿安保目标策略灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>1.05</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>36.67</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>1.67</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0175</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>580006</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>东吴新经济混合</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.29</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>85.94</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>4.75</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0138</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>009170</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>湘财长兴灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.90</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>74.89</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>1.42</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0128</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>005209</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>东吴双三角股票A</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.26</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>93.05</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>4.67</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0121</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>005210</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>东吴双三角股票C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>93.05</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>4.67</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0023</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>011462</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>东吴兴享成长混合C</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>36.10</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>1.62</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0016</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>002170</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>东吴移动互联灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>94.03</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>4.25</t>
-        </is>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>